--- a/Assignment Problem.xlsx
+++ b/Assignment Problem.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="964" documentId="8_{5160655B-D026-4A7A-851E-F81061EA2CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D0397DC-F6F7-4FC8-8228-A47AC52541DB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3999DB02-AF9A-442F-9A1D-A4E745035265}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3999DB02-AF9A-442F-9A1D-A4E745035265}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem Statement" sheetId="2" r:id="rId1"/>
@@ -397,6 +397,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -406,26 +426,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C712BED2-4836-4973-B428-B65537EBD6A9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -969,9 +969,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73833A40-F762-44C8-89D1-236074AD81C1}">
-  <dimension ref="B1:J40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1019,12 +1019,12 @@
         <v>0</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2">
@@ -1063,7 +1063,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -1099,7 +1099,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1129,12 +1129,12 @@
         <v>28</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
@@ -1154,13 +1154,13 @@
       <c r="H12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2">
@@ -1182,15 +1182,15 @@
         <f>SUM(D13:G13)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2">
         <v>2</v>
       </c>
@@ -1210,15 +1210,15 @@
         <f t="shared" ref="H14:H16" si="0">SUM(D14:G14)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2">
         <v>3</v>
       </c>
@@ -1238,15 +1238,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1266,15 +1266,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="7">
@@ -1295,17 +1295,17 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="J18" s="12" t="s">
@@ -1317,16 +1317,16 @@
         <v>30</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="21">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21">
-        <v>1</v>
-      </c>
-      <c r="F19" s="21">
-        <v>1</v>
-      </c>
-      <c r="G19" s="21">
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16">
         <v>1</v>
       </c>
       <c r="J19" s="12">
@@ -1336,10 +1336,10 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1347,94 +1347,94 @@
       <c r="B22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1449,11 +1449,6 @@
     <row r="40" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
@@ -1463,6 +1458,11 @@
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1491,7 +1491,7 @@
     <col min="9" max="9" width="4" style="13" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="13" customWidth="1"/>
     <col min="11" max="12" width="9.140625" style="13" customWidth="1"/>
-    <col min="13" max="16" width="0" style="13" hidden="1"/>
+    <col min="13" max="16" width="0" style="13" hidden="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="13" hidden="1"/>
   </cols>
   <sheetData>
@@ -1523,12 +1523,12 @@
         <v>0</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -1547,7 +1547,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2">
@@ -1567,7 +1567,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -1609,12 +1609,12 @@
         <v>28</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
@@ -1634,14 +1634,14 @@
       <c r="H12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K12"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2">
@@ -1663,15 +1663,15 @@
         <f>SUM(D13:G13)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2">
         <v>2</v>
       </c>
@@ -1691,15 +1691,15 @@
         <f t="shared" ref="H14:H15" si="0">SUM(D14:G14)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2">
         <v>3</v>
       </c>
@@ -1719,15 +1719,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="7">
@@ -1748,17 +1748,17 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="16" t="s">
         <v>40</v>
       </c>
       <c r="J17" s="12" t="s">
@@ -1770,16 +1770,16 @@
         <v>30</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
-      <c r="G18" s="21">
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
         <v>1</v>
       </c>
       <c r="J18" s="12">
@@ -1789,10 +1789,10 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1800,84 +1800,84 @@
       <c r="B21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1894,6 +1894,12 @@
     <row r="40" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C22:E22"/>
@@ -1901,12 +1907,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
